--- a/City Projects /round-1/10-Davanagere_projects.xlsx
+++ b/City Projects /round-1/10-Davanagere_projects.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cxphan/Downloads/Remote Repos/India - Smart Cities Feature Extraction/City Projects /round-1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA680F6-C299-D441-8F7C-C5189F3679AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="18960" windowHeight="11320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -14,214 +20,178 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="9.0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">List of Projects as per Smart City Proposal : Davanagere</t>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>List of Projects as per Smart City Proposal : Davanagere</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="9.0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Sl.No.</t>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sl.No.</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="9.0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Projects in SCP</t>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Projects in SCP</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="9.0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Cost (Rs. in Crore)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Area Based Development (ABD)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Mandipet Area ‐ Economic Rejuvenation ‐ Area of 6 acres belonging to State Government to be developed as a sub-CBD zone   with provision for 150 bedded Hospital, School, Parking and Commercial Area</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">GPS &amp; RFID Based Integrated Bin Less Solid Waste Management System</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Dedicated Footpath, Cycle Tracks, Information Kiosks, Intelligent Solar Street Lights</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Underground Utility Corridor with sensors</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Old City Bus Redevelopment with Integrated Command Centre for Smart City</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Mandipet Area ‐ Economic Rejuvenation</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Heritage Block</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Underground Drainage Facility</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Rooftop Solar Panels</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Pan City</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ICT enabled E‐ Governance System on GIS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Intelligent Urban Mobility System &amp; Secure Environment</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7.0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Note-  </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="7.0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">This only indicates cost of individual projects given in the SCP. The total value of SCP may additionally include other costs such as DPR preparation, PMC, O&amp;M etc.</t>
-    </r>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cost (Rs. in Crore)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>GPS &amp; RFID Based Integrated Bin Less Solid Waste Management System</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Dedicated Footpath, Cycle Tracks, Information Kiosks, Intelligent Solar Street Lights</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Underground Utility Corridor with sensors</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Old City Bus Redevelopment with Integrated Command Centre for Smart City</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mandipet Area ‐ Economic Rejuvenation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Heritage Block</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Underground Drainage Facility</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rooftop Solar Panels</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ICT enabled E‐ Governance System on GIS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Intelligent Urban Mobility System &amp; Secure Environment</t>
+    </r>
+  </si>
+  <si>
+    <t>City Tag</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Indicator</t>
+  </si>
+  <si>
+    <t>ABD</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Pan City</t>
+  </si>
+  <si>
+    <t>Mandipet Area ‐ Economic Rejuvenation ‐ Area of 6 acres belonging to State Government to be developed as a sub-CBD zone   with provision for 150 bedded Hospital, School, Parking and Commercial Area</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -243,6 +213,17 @@
       <sz val="9"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -257,7 +238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -289,90 +270,43 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fillId="0" borderId="0" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="1" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="19" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="2" borderId="2" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="2" borderId="2" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="2" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="2" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="3" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="19"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="4" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fillId="0" borderId="2" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="2" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fillId="0" borderId="2" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fillId="0" borderId="2" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fillId="0" borderId="2" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="2" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="5" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -380,6 +314,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -426,7 +368,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -458,9 +400,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -492,6 +452,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -667,184 +645,237 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="1" width="12.666667"/>
-    <col min="2" max="2" customWidth="1" width="79.333333"/>
-    <col min="3" max="3" customWidth="1" width="25.555556"/>
+    <col min="1" max="1" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="79.3984375" customWidth="1"/>
+    <col min="3" max="3" width="25.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.50" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" ht="13.50" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.25" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="6" t="s">
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5">
+        <v>372.9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3" ht="71.25" customHeight="1">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="7">
+        <v>37.01</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="35.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10">
-        <v>372.90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="25.50" customHeight="1">
-      <c r="A5" s="11">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="5">
+        <v>43.53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="12">
-        <v>37.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="35.75" customHeight="1">
-      <c r="A6" s="8">
-        <v>3</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="C6" s="7">
+        <v>50.96</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="35.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="10">
-        <v>43.53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="13.50" customHeight="1">
-      <c r="A7" s="11">
-        <v>4</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="5">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="12">
-        <v>50.96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="35.75" customHeight="1">
-      <c r="A8" s="8">
-        <v>5</v>
-      </c>
-      <c r="B8" s="13" t="s">
+      <c r="C8" s="7">
+        <v>102.91</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="10">
-        <v>25.00</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="13.50" customHeight="1">
-      <c r="A9" s="11">
-        <v>6</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="7">
+        <v>6.67</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="12">
-        <v>102.91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="13.50" customHeight="1">
-      <c r="A10" s="11">
-        <v>7</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="7">
+        <v>161.01</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="12">
-        <v>6.67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="13.50" customHeight="1">
-      <c r="A11" s="11">
-        <v>8</v>
-      </c>
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="7">
+        <v>9.4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="23.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="12">
-        <v>161.01</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="13.50" customHeight="1">
-      <c r="A12" s="11">
-        <v>9</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="7">
+        <v>38.44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="23.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="12">
-        <v>9.40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="13.50" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:3" ht="23.75" customHeight="1">
-      <c r="A14" s="11">
-        <v>10</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="12">
-        <v>38.44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="23.75" customHeight="1">
-      <c r="A15" s="11">
-        <v>11</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="12">
+      <c r="C13" s="7">
         <v>459.35</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="31.50" customHeight="1">
-      <c r="A16" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
